--- a/cheatsheet.xlsx
+++ b/cheatsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programing\algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3F832C-8F4D-4675-BAC2-0E16DA2ACA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F9D969-0F2B-42F1-8E8A-693B615568F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="24765" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27375" yWindow="3090" windowWidth="24765" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t xml:space="preserve">compress string </t>
   </si>
@@ -48,9 +48,6 @@
     <t>Data Structure</t>
   </si>
   <si>
-    <t>Array</t>
-  </si>
-  <si>
     <t>Time Complexity</t>
   </si>
   <si>
@@ -58,6 +55,33 @@
   </si>
   <si>
     <t>result, count, prev, i &lt;= s.length</t>
+  </si>
+  <si>
+    <t>uncompress</t>
+  </si>
+  <si>
+    <t>3c2a -&gt; cccaa</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>result, set(num), concat number, create num*char</t>
+  </si>
+  <si>
+    <t>are two strings are anagrams</t>
+  </si>
+  <si>
+    <t>"restful", "fluster" -&gt;  true</t>
+  </si>
+  <si>
+    <t>create hashmap(s1), loop through s2, if(hash[char] &amp;&amp; hash[char] &gt; 0 has[c]-- else false)</t>
+  </si>
+  <si>
+    <t>n + m</t>
   </si>
 </sst>
 </file>
@@ -96,7 +120,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -378,60 +402,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="69.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/cheatsheet.xlsx
+++ b/cheatsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programing\algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F9D969-0F2B-42F1-8E8A-693B615568F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800B9296-E332-4977-A8FB-8521B1F1174D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27375" yWindow="3090" windowWidth="24765" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="4290" windowWidth="24765" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t xml:space="preserve">compress string </t>
   </si>
@@ -78,10 +78,55 @@
     <t>"restful", "fluster" -&gt;  true</t>
   </si>
   <si>
+    <t>hashmap</t>
+  </si>
+  <si>
     <t>create hashmap(s1), loop through s2, if(hash[char] &amp;&amp; hash[char] &gt; 0 has[c]-- else false)</t>
   </si>
   <si>
     <t>n + m</t>
+  </si>
+  <si>
+    <t>Most frequent char in a string</t>
+  </si>
+  <si>
+    <t>aaaart -&gt; a</t>
+  </si>
+  <si>
+    <t>hashmap with count</t>
+  </si>
+  <si>
+    <t>return the elements that are common between two arrays</t>
+  </si>
+  <si>
+    <t>[1, 4, 5], [2, 3, 5] -&gt; [5]</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>create a set from first array and loop through second array</t>
+  </si>
+  <si>
+    <t>return an array containing a pair of indices whose elements sum to the given target</t>
+  </si>
+  <si>
+    <t>pairSum([3, 2, 5, 4, 1], 8); // -&gt; [0, 2]</t>
+  </si>
+  <si>
+    <t>seen[numbers[i]] = i hashmap, loop through the array, seen[difference]</t>
+  </si>
+  <si>
+    <t> rearrange elements of the array such that all 5s appear at the end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fiveSort([12, 5, 1, 5, 12, 7]) -&gt; [12, 7, 1, 12, 5, 5] </t>
+  </si>
+  <si>
+    <t>two pointers</t>
+  </si>
+  <si>
+    <t>while i&lt;j if num[i] == 5 swap; j-- else i++</t>
   </si>
 </sst>
 </file>
@@ -402,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,16 +532,90 @@
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>2</v>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/cheatsheet.xlsx
+++ b/cheatsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programing\algorithms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shahriark/Documents/algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800B9296-E332-4977-A8FB-8521B1F1174D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3114477F-358F-7543-A395-2D996702A833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="4290" windowWidth="24765" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="4300" windowWidth="24760" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t xml:space="preserve">compress string </t>
   </si>
@@ -127,6 +127,15 @@
   </si>
   <si>
     <t>while i&lt;j if num[i] == 5 swap; j-- else i++</t>
+  </si>
+  <si>
+    <t>MergeSort</t>
+  </si>
+  <si>
+    <t>mid = floor(nums.length/2) left = mergeSort(nums.slice(0, mid)); merge(left, right);</t>
+  </si>
+  <si>
+    <t>nlogn</t>
   </si>
 </sst>
 </file>
@@ -447,24 +456,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="69.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="45.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="69.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -484,7 +493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -504,7 +513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -544,7 +553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -564,7 +573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -584,7 +593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -598,7 +607,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -616,6 +625,20 @@
       </c>
       <c r="F8" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/cheatsheet.xlsx
+++ b/cheatsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shahriark/Documents/algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3114477F-358F-7543-A395-2D996702A833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C7B075-9988-E045-8622-461065063C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="4300" windowWidth="24760" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40020" yWindow="7720" windowWidth="24760" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t xml:space="preserve">compress string </t>
   </si>
@@ -136,6 +136,33 @@
   </si>
   <si>
     <t>nlogn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Elements in Two Sorted Arrays </t>
+  </si>
+  <si>
+    <t>if  list1[i] == list2[j]  i++; j++ else uf &gt; j++ else i++</t>
+  </si>
+  <si>
+    <t>Is One Array a Rotation of Another?</t>
+  </si>
+  <si>
+    <t>Example: [1, 2, 3, 4, 5, 6, 7] is a rotation of [4, 5, 6, 7, 1, 2, 3].</t>
+  </si>
+  <si>
+    <t>Two while loops. Find list1[i] == list2[j] then ittarate through i</t>
+  </si>
+  <si>
+    <t>returns the first character that does not appear twice or more</t>
+  </si>
+  <si>
+    <t>loop through the string twice</t>
+  </si>
+  <si>
+    <t>Write a function that takes two strings and returns True if they are one edit away from each other</t>
+  </si>
+  <si>
+    <t>Three cases. S1==s2 s1 &gt; s2 s1 &lt; s2 s1[i] != s2[i+count]</t>
   </si>
 </sst>
 </file>
@@ -456,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -641,6 +668,74 @@
         <v>2</v>
       </c>
     </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheatsheet.xlsx
+++ b/cheatsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shahriark/Documents/algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C7B075-9988-E045-8622-461065063C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395CAA2E-8BEF-C64A-A963-34C5B0F8E31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40020" yWindow="7720" windowWidth="24760" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39420" yWindow="5540" windowWidth="24760" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t xml:space="preserve">compress string </t>
   </si>
@@ -163,6 +163,18 @@
   </si>
   <si>
     <t>Three cases. S1==s2 s1 &gt; s2 s1 &lt; s2 s1[i] != s2[i+count]</t>
+  </si>
+  <si>
+    <t>Implement a function that assigns correct numbers in a field of Minesweeper, which is represented as a 2 dimensional array.</t>
+  </si>
+  <si>
+    <t>2d Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">init 2d field to 0. ittarate through boms.for (let i = ib - 1; i &lt;= ib + 1; i++)  for (let j = jb - 1; j &lt;= jb + 1; j++) </t>
+  </si>
+  <si>
+    <t>n2</t>
   </si>
 </sst>
 </file>
@@ -483,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -736,6 +748,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cheatsheet.xlsx
+++ b/cheatsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shahriark/Documents/algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395CAA2E-8BEF-C64A-A963-34C5B0F8E31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B3E854-BA97-624E-9393-540A7788F639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39420" yWindow="5540" windowWidth="24760" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34280" yWindow="8200" windowWidth="24760" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t xml:space="preserve">compress string </t>
   </si>
@@ -175,6 +175,18 @@
   </si>
   <si>
     <t>n2</t>
+  </si>
+  <si>
+    <t>reverse linked list</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a -&gt; b -&gt; c -&gt; d -&gt; e -&gt; f  reverseList(a); f -&gt; e -&gt; d -&gt; c -&gt; b -&gt; a</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>next = c.next; c.next = prev; prev = c; c = next; return prev</t>
   </si>
 </sst>
 </file>
@@ -495,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -765,6 +777,26 @@
         <v>49</v>
       </c>
     </row>
+    <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
